--- a/image/graphdefinition.xlsx
+++ b/image/graphdefinition.xlsx
@@ -1023,45 +1023,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.1796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.1875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.22265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="47.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="48.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/graphdefinition.xlsx
+++ b/image/graphdefinition.xlsx
@@ -829,7 +829,7 @@
     <t>GraphDefinition.link.target.compartment.code</t>
   </si>
   <si>
-    <t>Identifies the compartment</t>
+    <t>Patient | Encounter | RelatedPerson | Practitioner | Device</t>
   </si>
   <si>
     <t>Identifies the compartment.</t>

--- a/image/graphdefinition.xlsx
+++ b/image/graphdefinition.xlsx
@@ -829,7 +829,7 @@
     <t>GraphDefinition.link.target.compartment.code</t>
   </si>
   <si>
-    <t>Identifies the compartment</t>
+    <t>Patient | Encounter | RelatedPerson | Practitioner | Device</t>
   </si>
   <si>
     <t>Identifies the compartment.</t>
@@ -1023,45 +1023,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.1796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.1875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.22265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="47.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="48.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/graphdefinition.xlsx
+++ b/image/graphdefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="279">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -359,10 +359,6 @@
   </si>
   <si>
     <t>GraphDefinition.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the graph definition</t>
@@ -1023,45 +1019,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.1796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.1875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.15625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.54296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.22265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="47.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2318,16 +2314,16 @@
         <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2395,10 +2391,10 @@
         <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>40</v>
@@ -2406,7 +2402,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2429,19 +2425,19 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2490,7 +2486,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>48</v>
@@ -2499,7 +2495,7 @@
         <v>48</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
@@ -2519,7 +2515,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2545,13 +2541,13 @@
         <v>67</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2577,52 +2573,52 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
@@ -2630,7 +2626,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2653,19 +2649,19 @@
         <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2714,7 +2710,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2732,10 +2728,10 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
@@ -2743,11 +2739,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2766,16 +2762,16 @@
         <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2825,7 +2821,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2843,10 +2839,10 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -2854,7 +2850,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2877,19 +2873,19 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2938,7 +2934,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2956,10 +2952,10 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -2967,7 +2963,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2990,16 +2986,16 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3049,7 +3045,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3067,7 +3063,7 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3078,7 +3074,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3101,16 +3097,16 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3160,7 +3156,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3178,7 +3174,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3189,7 +3185,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3212,19 +3208,19 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3273,7 +3269,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3291,7 +3287,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3302,7 +3298,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3325,16 +3321,16 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3360,14 +3356,14 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3384,7 +3380,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3402,7 +3398,7 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3413,7 +3409,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3436,16 +3432,16 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3495,7 +3491,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3513,18 +3509,18 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3550,10 +3546,10 @@
         <v>67</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3580,14 +3576,14 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3604,7 +3600,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>48</v>
@@ -3633,7 +3629,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3656,16 +3652,16 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3715,7 +3711,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3744,7 +3740,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3767,13 +3763,13 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3824,7 +3820,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3836,7 +3832,7 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
@@ -3853,7 +3849,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3876,13 +3872,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3933,7 +3929,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3962,7 +3958,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3991,7 +3987,7 @@
         <v>94</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>96</v>
@@ -4044,7 +4040,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4073,11 +4069,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4099,10 +4095,10 @@
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>96</v>
@@ -4157,7 +4153,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4186,7 +4182,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4209,16 +4205,16 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4268,7 +4264,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4297,7 +4293,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4320,13 +4316,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4377,7 +4373,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4406,7 +4402,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4429,13 +4425,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4486,7 +4482,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4515,7 +4511,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4538,13 +4534,13 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4595,7 +4591,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4624,7 +4620,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4647,13 +4643,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4704,7 +4700,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4733,7 +4729,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4756,13 +4752,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4813,7 +4809,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4825,7 +4821,7 @@
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
@@ -4842,7 +4838,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4865,13 +4861,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4922,7 +4918,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -4951,7 +4947,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4980,7 +4976,7 @@
         <v>94</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>96</v>
@@ -5033,7 +5029,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5062,11 +5058,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5088,10 +5084,10 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>96</v>
@@ -5146,7 +5142,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5175,7 +5171,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5201,10 +5197,10 @@
         <v>67</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5231,14 +5227,14 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5255,7 +5251,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>48</v>
@@ -5284,7 +5280,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5307,16 +5303,16 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5366,7 +5362,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5395,7 +5391,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5418,13 +5414,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5475,7 +5471,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5504,7 +5500,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5527,13 +5523,13 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5584,7 +5580,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5596,7 +5592,7 @@
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>40</v>
@@ -5613,7 +5609,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5636,13 +5632,13 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5693,7 +5689,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5722,7 +5718,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5751,7 +5747,7 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>96</v>
@@ -5804,7 +5800,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5833,11 +5829,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5859,10 +5855,10 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>96</v>
@@ -5917,7 +5913,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -5946,7 +5942,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5972,13 +5968,13 @@
         <v>67</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6004,14 +6000,14 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6028,7 +6024,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>48</v>
@@ -6057,7 +6053,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6083,10 +6079,10 @@
         <v>67</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6113,14 +6109,14 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6137,7 +6133,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>48</v>
@@ -6166,7 +6162,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6192,10 +6188,10 @@
         <v>67</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6222,14 +6218,14 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6246,7 +6242,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>48</v>
@@ -6275,7 +6271,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6298,13 +6294,13 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6355,7 +6351,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6384,7 +6380,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6407,13 +6403,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6464,7 +6460,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6493,7 +6489,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6519,10 +6515,10 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6573,7 +6569,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
